--- a/results/Homeopathy_excluded/mod2.antielite_salience.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.antielite_salience.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00406493549260645</v>
+        <v>-0.00406495303710436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338097746763245</v>
+        <v>0.0338096770149942</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0703308761836168</v>
+        <v>-0.0703307023154248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0622010051984039</v>
+        <v>0.062200796241216</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.12022959429697</v>
+        <v>-0.120230460506961</v>
       </c>
       <c r="H2" t="n">
-        <v>0.904301274950321</v>
+        <v>0.904300588792007</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102581790180401</v>
+        <v>0.102581118847336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0810345137039517</v>
+        <v>0.0810342794688158</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0562429381840615</v>
+        <v>-0.0562431504246962</v>
       </c>
       <c r="F3" t="n">
-        <v>0.261406518544864</v>
+        <v>0.261405388119369</v>
       </c>
       <c r="G3" t="n">
-        <v>1.26590245923076</v>
+        <v>1.26589783385206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.205548005854544</v>
+        <v>0.205549662037128</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0389044763368212</v>
+        <v>-0.0389036791158163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0363899891336193</v>
+        <v>0.0363898929504311</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.110227544436519</v>
+        <v>-0.110226558699929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0324185917628765</v>
+        <v>0.0324192004682967</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.06909832245261</v>
+        <v>-1.06907924045859</v>
       </c>
       <c r="H4" t="n">
-        <v>0.285025367488031</v>
+        <v>0.285033965047713</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0596123783509737</v>
+        <v>-0.0596124866944156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0297983912803336</v>
+        <v>0.0297983036590272</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.11801615205766</v>
+        <v>-0.118016088666497</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00120860464428742</v>
+        <v>-0.00120888472233428</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.00052337692192</v>
+        <v>-2.0005328953132</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0454437782156669</v>
+        <v>0.0454427514865985</v>
       </c>
     </row>
   </sheetData>
